--- a/biology/Microbiologie/Cytophaga_latercula/Cytophaga_latercula.xlsx
+++ b/biology/Microbiologie/Cytophaga_latercula/Cytophaga_latercula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aquimarina latercula est une espèce de bactéries de la famille des Flavobacteriaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La description de l'espèce Aquimarine intermedia dont la souche type a été isolée de l'oursin Strongylocentrotus intermedius a permis de redifinir le genre bactérien de l'espèce Stanierella latercula en Aquimarina latercula[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La description de l'espèce Aquimarine intermedia dont la souche type a été isolée de l'oursin Strongylocentrotus intermedius a permis de redifinir le genre bactérien de l'espèce Stanierella latercula en Aquimarina latercula.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des bactéries gram négatives, hétérotrophes et aérobies. Elles sont pigmentées et capables de glisser[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des bactéries gram négatives, hétérotrophes et aérobies. Elles sont pigmentées et capables de glisser.
 </t>
         </is>
       </c>
@@ -573,16 +589,87 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aquimarina latercula (Lewin 1969) Nedashkovskaya et al. 2006[2].
-Aquimarina latercula a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Aquimarina latercula (Lewin 1969) Nedashkovskaya et al. 2006.
+Aquimarina latercula a pour synonymes :
 Cytophaga latercula Lewin 1969
-Stanierella latercula (Lewin 1969) Nedashkovskaya et al. 2005
-Étymologie
-L'étymologie du nom spécifique est la suivante : la.ter.cu.la. L. masc. adj. laterculus, une petite brique; L. fem. adj. latercula, ressemble à une brique, de couleur rouge brique[2].
-Phylogénie
-L'analyse des séquences de l'ARN ribosomal 16S a démontré une proximité avec Aquimarine muellerii, espèce type du genre Aquimarina dont l'homologie de séquence est de 96,3 %. Cette homologie est également très élevée avec l'espèce Stanierella latercula (96,4 %) et l'espèce Gaetbulimicrobium brevivitae (96,2 %) qui deviendront des membres supplemntaires du genre Aquimarina[1].
+Stanierella latercula (Lewin 1969) Nedashkovskaya et al. 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cytophaga_latercula</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cytophaga_latercula</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom spécifique est la suivante : la.ter.cu.la. L. masc. adj. laterculus, une petite brique; L. fem. adj. latercula, ressemble à une brique, de couleur rouge brique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cytophaga_latercula</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cytophaga_latercula</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse des séquences de l'ARN ribosomal 16S a démontré une proximité avec Aquimarine muellerii, espèce type du genre Aquimarina dont l'homologie de séquence est de 96,3 %. Cette homologie est également très élevée avec l'espèce Stanierella latercula (96,4 %) et l'espèce Gaetbulimicrobium brevivitae (96,2 %) qui deviendront des membres supplemntaires du genre Aquimarina.
 </t>
         </is>
       </c>
